--- a/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ZD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>315100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1416700</v>
+      </c>
+      <c r="F8" s="3">
         <v>444300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>827200</v>
       </c>
-      <c r="F8" s="3">
-        <v>398200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>469200</v>
-      </c>
       <c r="H8" s="3">
+        <v>311700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1158800</v>
+      </c>
+      <c r="J8" s="3">
         <v>357000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>663400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>332400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>188100</v>
+      </c>
+      <c r="F9" s="3">
         <v>64300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>121200</v>
       </c>
-      <c r="F9" s="3">
-        <v>57800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>60000</v>
-      </c>
       <c r="H9" s="3">
+        <v>43900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>178400</v>
+      </c>
+      <c r="J9" s="3">
         <v>55800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>115900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>59100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1228600</v>
+      </c>
+      <c r="F10" s="3">
         <v>380000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>706000</v>
       </c>
-      <c r="F10" s="3">
-        <v>340400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>409200</v>
-      </c>
       <c r="H10" s="3">
+        <v>267800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>980400</v>
+      </c>
+      <c r="J10" s="3">
         <v>301200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>547500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>273300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>341300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F12" s="3">
         <v>21600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>41000</v>
       </c>
-      <c r="F12" s="3">
-        <v>21400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>21000</v>
-      </c>
       <c r="H12" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>57100</v>
+      </c>
+      <c r="J12" s="3">
         <v>14300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>29000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>15400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F14" s="3">
         <v>24600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>29800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-17100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>185700</v>
+      </c>
+      <c r="F15" s="3">
         <v>47800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>96500</v>
       </c>
-      <c r="F15" s="3">
-        <v>48500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>49300</v>
-      </c>
       <c r="H15" s="3">
+        <v>47300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>156400</v>
+      </c>
+      <c r="J15" s="3">
         <v>41200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>74400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>38800</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1276500</v>
+      </c>
+      <c r="F17" s="3">
         <v>372700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>684300</v>
       </c>
-      <c r="F17" s="3">
-        <v>317700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>340400</v>
-      </c>
       <c r="H17" s="3">
+        <v>282800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1003400</v>
+      </c>
+      <c r="J17" s="3">
         <v>262400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>535100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>277100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>295300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F18" s="3">
         <v>71600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>142900</v>
       </c>
-      <c r="F18" s="3">
-        <v>80500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>128800</v>
-      </c>
       <c r="H18" s="3">
+        <v>28900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>155400</v>
+      </c>
+      <c r="J18" s="3">
         <v>94600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>128300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>55300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>211100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-18300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-59900</v>
       </c>
-      <c r="F20" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-50800</v>
-      </c>
       <c r="H20" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-61800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-48700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-24200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>609700</v>
+      </c>
+      <c r="F21" s="3">
         <v>119600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>213200</v>
       </c>
-      <c r="F21" s="3">
-        <v>124900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>143100</v>
-      </c>
       <c r="H21" s="3">
+        <v>73100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>307100</v>
+      </c>
+      <c r="J21" s="3">
         <v>145500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>170500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>60500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>147700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>351400</v>
+      </c>
+      <c r="F23" s="3">
         <v>53300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>83000</v>
       </c>
-      <c r="F23" s="3">
-        <v>59400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>78000</v>
-      </c>
       <c r="H23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>78300</v>
+      </c>
+      <c r="J23" s="3">
         <v>85900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>66500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F24" s="3">
         <v>8800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="F24" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>19400</v>
-      </c>
       <c r="H24" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J24" s="3">
         <v>24300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>24700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>365600</v>
+      </c>
+      <c r="F26" s="3">
         <v>44500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>75100</v>
       </c>
-      <c r="F26" s="3">
-        <v>53700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>58600</v>
-      </c>
       <c r="H26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J26" s="3">
         <v>61600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>41800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>123300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>401100</v>
+      </c>
+      <c r="F27" s="3">
         <v>42500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>93500</v>
       </c>
-      <c r="F27" s="3">
-        <v>77800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>57900</v>
-      </c>
       <c r="H27" s="3">
+        <v>38700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J27" s="3">
         <v>60800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>31300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,28 +1401,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>95300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>39100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>122000</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-211100</v>
+      </c>
+      <c r="F32" s="3">
         <v>18300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>59900</v>
       </c>
-      <c r="F32" s="3">
-        <v>21100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>50800</v>
-      </c>
       <c r="H32" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>77100</v>
+      </c>
+      <c r="J32" s="3">
         <v>8700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>61800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>48700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>496400</v>
+      </c>
+      <c r="F33" s="3">
         <v>42500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>93500</v>
       </c>
-      <c r="F33" s="3">
-        <v>77800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>57900</v>
-      </c>
       <c r="H33" s="3">
+        <v>77900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>150500</v>
+      </c>
+      <c r="J33" s="3">
         <v>60800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>31300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>496400</v>
+      </c>
+      <c r="F35" s="3">
         <v>42500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>93500</v>
       </c>
-      <c r="F35" s="3">
-        <v>77800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>57900</v>
-      </c>
       <c r="H35" s="3">
+        <v>77900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>150500</v>
+      </c>
+      <c r="J35" s="3">
         <v>60800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>31300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,57 +1705,65 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>694800</v>
+      </c>
+      <c r="F41" s="3">
         <v>546500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>347900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>372000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>242700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>567900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>616800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>526600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>575600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>238200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>229200</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1592,37 +1771,49 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>316300</v>
+      </c>
+      <c r="F43" s="3">
         <v>268300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>249000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>242400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>325600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>192800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>188400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>204800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1841,189 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F45" s="3">
         <v>73500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>65100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>60400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>53900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>46600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>47900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>50800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1192900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300700</v>
+      </c>
+      <c r="F46" s="3">
         <v>888300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>662000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>675500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>622800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>807300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>853100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>782100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>886900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>122600</v>
+      </c>
+      <c r="F47" s="3">
         <v>110700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>117400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>138700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>97500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>96600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>94000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>98000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>216800</v>
+      </c>
+      <c r="F48" s="3">
         <v>271500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>254600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>241100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>262400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>244700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>254500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>251900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>253600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2101700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2104200</v>
+      </c>
+      <c r="F49" s="3">
         <v>2502500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2513700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2462600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2609000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2121100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2127700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2163800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2189600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F52" s="3">
         <v>57700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>155700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>185700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>73600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>73300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>90000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>73000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>75700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3663200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3770300</v>
+      </c>
+      <c r="F54" s="3">
         <v>3830700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3703400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3703700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3665300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3343000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3419400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3368900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3505800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>226600</v>
+      </c>
+      <c r="F57" s="3">
         <v>229000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>198200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>201100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>230700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>177800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>166300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>162700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F58" s="3">
         <v>568100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>402100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>399900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>396800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>394000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>391100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>385500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>216000</v>
+      </c>
+      <c r="F59" s="3">
         <v>231400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>244700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>266500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>255100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>197100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>214800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>206000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>209500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>432200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>497200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1028400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>845000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>867500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>882600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>768900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>772200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>368700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>833100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1122900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1110700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1189700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1186400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1182200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1075100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1071400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1455400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1062900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>242500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>269300</v>
+      </c>
+      <c r="F62" s="3">
         <v>322300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>374100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>374800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>389500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>322700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>312700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>303700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1797700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1802500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2461400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2408900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2428700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2454300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2166700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2156300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2127800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2194700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1508800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1515400</v>
+      </c>
+      <c r="F72" s="3">
         <v>931500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>892600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>882100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>809100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>782100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>850200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>832600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>891500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1865500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1967700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1369300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1294500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1274900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1211000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1176300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1263200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1241100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1311200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>496400</v>
+      </c>
+      <c r="F81" s="3">
         <v>42500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>93500</v>
       </c>
-      <c r="F81" s="3">
-        <v>77800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>57900</v>
-      </c>
       <c r="H81" s="3">
+        <v>77900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>150500</v>
+      </c>
+      <c r="J81" s="3">
         <v>60800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>31300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>258300</v>
+      </c>
+      <c r="F83" s="3">
         <v>66200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>130200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>65500</v>
       </c>
-      <c r="G83" s="3">
-        <v>65100</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>228700</v>
+      </c>
+      <c r="J83" s="3">
         <v>59600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>104100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>54000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>61600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>516500</v>
+      </c>
+      <c r="F89" s="3">
         <v>140200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>290000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>178700</v>
       </c>
-      <c r="G89" s="3">
-        <v>124100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>480100</v>
+      </c>
+      <c r="J89" s="3">
         <v>114400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>241600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>102000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-29700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-57800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-26300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-20700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-50500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-26900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-152600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-478900</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-586200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-10400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-96900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-69100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-32300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="F100" s="3">
         <v>71400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-31600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-20100</v>
       </c>
-      <c r="G100" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>-234600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-155300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-101500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-78400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J101" s="3">
         <v>2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>452200</v>
+      </c>
+      <c r="F102" s="3">
         <v>198600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>105200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>129300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-325300</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-48900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>41200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-49100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>483400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>ZD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>337400</v>
+      </c>
+      <c r="E8" s="3">
         <v>315100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1416700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>444300</v>
       </c>
-      <c r="G8" s="3">
-        <v>827200</v>
-      </c>
       <c r="H8" s="3">
+        <v>341300</v>
+      </c>
+      <c r="I8" s="3">
         <v>311700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1158800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>357000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>663400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>332400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E9" s="3">
         <v>46100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>188100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64300</v>
       </c>
-      <c r="G9" s="3">
-        <v>121200</v>
-      </c>
       <c r="H9" s="3">
+        <v>48800</v>
+      </c>
+      <c r="I9" s="3">
         <v>43900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>178400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>55800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>291400</v>
+      </c>
+      <c r="E10" s="3">
         <v>269000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1228600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>380000</v>
       </c>
-      <c r="G10" s="3">
-        <v>706000</v>
-      </c>
       <c r="H10" s="3">
+        <v>292500</v>
+      </c>
+      <c r="I10" s="3">
         <v>267800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>980400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>301200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>547500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>273300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>341300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E12" s="3">
         <v>18400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21600</v>
       </c>
-      <c r="G12" s="3">
-        <v>41000</v>
-      </c>
       <c r="H12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I12" s="3">
         <v>19700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>57100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,69 +939,75 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>75400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24600</v>
       </c>
-      <c r="G14" s="3">
-        <v>29800</v>
-      </c>
       <c r="H14" s="3">
+        <v>64400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-17100</v>
       </c>
       <c r="J14" s="3">
         <v>-17100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+        <v>-17100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E15" s="3">
         <v>41200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>185700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>47800</v>
       </c>
-      <c r="G15" s="3">
-        <v>96500</v>
-      </c>
       <c r="H15" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I15" s="3">
         <v>47300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>156400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>74400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>38800</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E17" s="3">
         <v>284500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1276500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>372700</v>
       </c>
-      <c r="G17" s="3">
-        <v>684300</v>
-      </c>
       <c r="H17" s="3">
+        <v>330400</v>
+      </c>
+      <c r="I17" s="3">
         <v>282800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1003400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>262400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>535100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>277100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>295300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E18" s="3">
         <v>30600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>140200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>71600</v>
       </c>
-      <c r="G18" s="3">
-        <v>142900</v>
-      </c>
       <c r="H18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I18" s="3">
         <v>28900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>155400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>94600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>55300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>211100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-59900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-21300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-77100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-61800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-48700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E21" s="3">
         <v>89500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>609700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>119600</v>
       </c>
-      <c r="G21" s="3">
-        <v>213200</v>
-      </c>
       <c r="H21" s="3">
+        <v>37100</v>
+      </c>
+      <c r="I21" s="3">
         <v>73100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>307100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>145500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>170500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E23" s="3">
         <v>30400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>351400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53300</v>
       </c>
-      <c r="G23" s="3">
-        <v>83000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="I23" s="3">
         <v>7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>78300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>85900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8800</v>
       </c>
-      <c r="G24" s="3">
-        <v>7900</v>
-      </c>
       <c r="H24" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E26" s="3">
         <v>25300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>365600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44500</v>
       </c>
-      <c r="G26" s="3">
-        <v>75100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="I26" s="3">
         <v>14500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>40000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>61600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>123300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E27" s="3">
         <v>24500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>401100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42500</v>
       </c>
-      <c r="G27" s="3">
-        <v>93500</v>
-      </c>
       <c r="H27" s="3">
-        <v>38700</v>
+        <v>-23000</v>
       </c>
       <c r="I27" s="3">
+        <v>38800</v>
+      </c>
+      <c r="J27" s="3">
         <v>28500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1401,34 +1462,37 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>95300</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I29" s="3">
         <v>39100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>122000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-211100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18300</v>
       </c>
-      <c r="G32" s="3">
-        <v>59900</v>
-      </c>
       <c r="H32" s="3">
+        <v>38500</v>
+      </c>
+      <c r="I32" s="3">
         <v>21300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>77100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>61800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>48700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E33" s="3">
         <v>24500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>496400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42500</v>
       </c>
-      <c r="G33" s="3">
-        <v>93500</v>
-      </c>
       <c r="H33" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I33" s="3">
         <v>77900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>150500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E35" s="3">
         <v>24500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>496400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42500</v>
       </c>
-      <c r="G35" s="3">
-        <v>93500</v>
-      </c>
       <c r="H35" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I35" s="3">
         <v>77900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>150500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,66 +1793,70 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>648300</v>
+      </c>
+      <c r="E41" s="3">
         <v>629000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>694800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>546500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>347900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>372000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>242700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>567900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>616800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>526600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>575600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E42" s="3">
         <v>238200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>229200</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
+      <c r="J42" s="3">
+        <v>700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>243300</v>
+      </c>
+      <c r="E43" s="3">
         <v>263700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>316300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>268300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>249000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>242400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>325600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>192800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>188400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>204800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,183 +1943,201 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E45" s="3">
         <v>62100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>53900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>46600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1025100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1192900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>888300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>662000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>675500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>622800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>807300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>853100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>782100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>886900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E47" s="3">
         <v>121600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>122600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>110700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>117400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>138700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>97500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>96600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>98000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E48" s="3">
         <v>214000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>216800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>271500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>254600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>241100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>262400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>244700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>254500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>251900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>253600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2140100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2101700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2104200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2502500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2513700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2462600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2609000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2121100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2127700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2163800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2189600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E52" s="3">
         <v>33000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>155700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>185700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>73600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>73300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3543100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3663200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3770300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3830700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3703400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3703700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3665300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3343000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3419400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3368900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3505800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E57" s="3">
         <v>213000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>226600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>229000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>198200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>201100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>230700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>177800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>166300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>162700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>68500</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>54600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>568100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>402100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>399900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>396800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>394000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>391100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>385500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E59" s="3">
         <v>219200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>216000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>231400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>244700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>266500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>255100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>197100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>214800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>206000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>209500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E60" s="3">
         <v>432200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>497200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1028400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>845000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>867500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>882600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>768900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>772200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>368700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>833100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1033700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1122900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1036000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1110700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1189700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1186400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1182200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1075100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1071400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1455400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1062900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E62" s="3">
         <v>242500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>269300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>322300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>374100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>374800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>389500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>322700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>312700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>303700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1748900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1797700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1802500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2461400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2408900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2428700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2454300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2166700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2156300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2127800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2194700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1451300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1508800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1515400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>931500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>892600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>882100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>809100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>782100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>850200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>832600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>891500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1794200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1865500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1967700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1369300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1294500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1274900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1211000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1176300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1263200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1241100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1311200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E81" s="3">
         <v>24500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>496400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42500</v>
       </c>
-      <c r="G81" s="3">
-        <v>93500</v>
-      </c>
       <c r="H81" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I81" s="3">
         <v>77900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>150500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E83" s="3">
         <v>59100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>258300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>66200</v>
       </c>
-      <c r="G83" s="3">
-        <v>130200</v>
-      </c>
       <c r="H83" s="3">
+        <v>64700</v>
+      </c>
+      <c r="I83" s="3">
         <v>65500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>228700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>59600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>104100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>61600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E89" s="3">
         <v>116500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>516500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>140200</v>
       </c>
-      <c r="G89" s="3">
-        <v>290000</v>
-      </c>
       <c r="H89" s="3">
+        <v>111300</v>
+      </c>
+      <c r="I89" s="3">
         <v>178700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>480100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>114400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>241600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-57800</v>
-      </c>
       <c r="H91" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-26300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-92600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>59100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-152600</v>
-      </c>
       <c r="H94" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-586200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-120700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-113100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>71400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-31600</v>
-      </c>
       <c r="H100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-20100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-234600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-155300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-101500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-78400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-600</v>
       </c>
       <c r="H101" s="3">
         <v>-300</v>
       </c>
       <c r="I101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J101" s="3">
         <v>7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-65800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>452200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>198600</v>
       </c>
-      <c r="G102" s="3">
-        <v>105200</v>
-      </c>
       <c r="H102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="I102" s="3">
         <v>129300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-333000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-49100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>483400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>ZD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>337400</v>
+        <v>396700</v>
       </c>
       <c r="E8" s="3">
+        <v>341900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>652400</v>
+      </c>
+      <c r="G8" s="3">
         <v>315100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1416700</v>
       </c>
-      <c r="G8" s="3">
-        <v>444300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>341300</v>
-      </c>
       <c r="I8" s="3">
+        <v>355100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>653000</v>
+      </c>
+      <c r="K8" s="3">
         <v>311700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1158800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>357000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>663400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>332400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46000</v>
+        <v>50800</v>
       </c>
       <c r="E9" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>92100</v>
+      </c>
+      <c r="G9" s="3">
         <v>46100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>188100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
+        <v>49700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>92600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>43900</v>
+      </c>
+      <c r="L9" s="3">
+        <v>178400</v>
+      </c>
+      <c r="M9" s="3">
+        <v>55800</v>
+      </c>
+      <c r="N9" s="3">
+        <v>115900</v>
+      </c>
+      <c r="O9" s="3">
+        <v>59100</v>
+      </c>
+      <c r="P9" s="3">
         <v>64300</v>
       </c>
-      <c r="H9" s="3">
-        <v>48800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>43900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>178400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>55800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>115900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>59100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>64300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>291400</v>
+        <v>345900</v>
       </c>
       <c r="E10" s="3">
+        <v>289300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>560300</v>
+      </c>
+      <c r="G10" s="3">
         <v>269000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1228600</v>
       </c>
-      <c r="G10" s="3">
-        <v>380000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>292500</v>
-      </c>
       <c r="I10" s="3">
+        <v>305400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>560400</v>
+      </c>
+      <c r="K10" s="3">
         <v>267800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>980400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>301200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>547500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>273300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>341300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>38100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>78900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K12" s="3">
         <v>19700</v>
       </c>
-      <c r="E12" s="3">
-        <v>18400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>78900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>21600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>17700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>57100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>29000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>15400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,75 +978,87 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="F14" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>75400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>24600</v>
       </c>
-      <c r="H14" s="3">
-        <v>64400</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-17100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-17100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41800</v>
+        <v>37400</v>
       </c>
       <c r="E15" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>83000</v>
+      </c>
+      <c r="G15" s="3">
         <v>41200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>185700</v>
       </c>
-      <c r="G15" s="3">
-        <v>47800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>46700</v>
-      </c>
       <c r="I15" s="3">
+        <v>46600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K15" s="3">
         <v>47300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>156400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>41200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>74400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>38800</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>291500</v>
+        <v>303200</v>
       </c>
       <c r="E17" s="3">
+        <v>302700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>574600</v>
+      </c>
+      <c r="G17" s="3">
         <v>284500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1276500</v>
       </c>
-      <c r="G17" s="3">
-        <v>372700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>330400</v>
-      </c>
       <c r="I17" s="3">
+        <v>334700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>613200</v>
+      </c>
+      <c r="K17" s="3">
         <v>282800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1003400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>262400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>535100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>277100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>295300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45900</v>
+        <v>93500</v>
       </c>
       <c r="E18" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>77800</v>
+      </c>
+      <c r="G18" s="3">
         <v>30600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>140200</v>
       </c>
-      <c r="G18" s="3">
-        <v>71600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10900</v>
-      </c>
       <c r="I18" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K18" s="3">
         <v>28900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>155400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>94600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>128300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>55300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-76200</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>211100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-38500</v>
-      </c>
       <c r="I20" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-21300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-77100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-8700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-61800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-48700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-24200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>29600</v>
+        <v>150100</v>
       </c>
       <c r="E21" s="3">
+        <v>95400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>119100</v>
+      </c>
+      <c r="G21" s="3">
         <v>89500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>609700</v>
       </c>
-      <c r="G21" s="3">
-        <v>119600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>37100</v>
-      </c>
       <c r="I21" s="3">
+        <v>72200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K21" s="3">
         <v>73100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>307100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>145500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>170500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>60500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>147700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-30300</v>
+        <v>91600</v>
       </c>
       <c r="E23" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>30400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>351400</v>
       </c>
-      <c r="G23" s="3">
-        <v>53300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-27600</v>
-      </c>
       <c r="I23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>78300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>85900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>66500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10100</v>
+        <v>24700</v>
       </c>
       <c r="E24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-14200</v>
       </c>
-      <c r="G24" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-10300</v>
-      </c>
       <c r="I24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>38400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>24300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>24700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40300</v>
+        <v>66800</v>
       </c>
       <c r="E26" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="G26" s="3">
         <v>25300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>365600</v>
       </c>
-      <c r="G26" s="3">
-        <v>44500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-17300</v>
-      </c>
       <c r="I26" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K26" s="3">
         <v>14500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>40000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>61600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>41800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>123300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46400</v>
+        <v>69200</v>
       </c>
       <c r="E27" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G27" s="3">
         <v>24500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>401100</v>
       </c>
-      <c r="G27" s="3">
-        <v>42500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-23000</v>
-      </c>
       <c r="I27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K27" s="3">
         <v>38800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>60800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>31300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,46 +1568,58 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>95300</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3">
+        <v>35800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K29" s="3">
+        <v>39100</v>
+      </c>
+      <c r="L29" s="3">
+        <v>122000</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I29" s="3">
-        <v>39100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>122000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>76200</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>77700</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-211100</v>
       </c>
-      <c r="G32" s="3">
-        <v>18300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>38500</v>
-      </c>
       <c r="I32" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K32" s="3">
         <v>21300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>77100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>8700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>61800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>48700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46400</v>
+        <v>67500</v>
       </c>
       <c r="E33" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G33" s="3">
         <v>24500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>496400</v>
       </c>
-      <c r="G33" s="3">
-        <v>42500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>15700</v>
-      </c>
       <c r="I33" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K33" s="3">
         <v>77900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>150500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>60800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>31300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46400</v>
+        <v>67500</v>
       </c>
       <c r="E35" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G35" s="3">
         <v>24500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>496400</v>
       </c>
-      <c r="G35" s="3">
-        <v>42500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>15700</v>
-      </c>
       <c r="I35" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K35" s="3">
         <v>77900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>150500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>60800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>31300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,75 +1965,83 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>652800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>621900</v>
+      </c>
+      <c r="F41" s="3">
         <v>648300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>629000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>694800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>546500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>347900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>372000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>242700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>567900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>616800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>526600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>575600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F42" s="3">
         <v>72500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>238200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>229200</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>10</v>
@@ -1870,46 +2049,58 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>304700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>232300</v>
+      </c>
+      <c r="F43" s="3">
         <v>243300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>263700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>316300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>268300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>249000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>242400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>325600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>192800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>188400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>204800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,198 +2137,234 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F45" s="3">
         <v>61000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>62100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>60300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>73500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>65100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>60400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>53900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>46600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>47900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>50800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1084300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>975300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1025100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1192900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>888300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>662000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>675500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>622800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>807300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>853100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>782100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>886900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>124200</v>
+      </c>
+      <c r="F47" s="3">
         <v>128500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>121600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>122600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>110700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>117400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>138700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>97500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>96600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>94000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>98000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>215400</v>
+      </c>
+      <c r="F48" s="3">
         <v>214700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>214000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>216800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>271500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>254600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>241100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>262400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>244700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>254500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>251900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>253600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2054300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2078400</v>
+      </c>
+      <c r="F49" s="3">
         <v>2140100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2101700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2104200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2502500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2513700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2462600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2609000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2121100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2127700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2163800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2189600</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F52" s="3">
         <v>34800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>33000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>26000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>57700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>155700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>185700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>73600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>73300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>90000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>73000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>75700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3533300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3433100</v>
+      </c>
+      <c r="F54" s="3">
         <v>3543100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3663200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3770300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3830700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3703400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3703700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3665300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3343000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3419400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3368900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3505800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2617,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>212900</v>
+      </c>
+      <c r="F57" s="3">
         <v>191900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>213000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>226600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>229000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>198200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>201100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>230700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>177800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>166300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>162700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>68500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>54600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>568100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>402100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>399900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>396800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>394000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>391100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>385500</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>203500</v>
+      </c>
+      <c r="F59" s="3">
         <v>223600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>219200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>216000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>231400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>244700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>266500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>255100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>197100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>214800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>206000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>209500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>432400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>416500</v>
+      </c>
+      <c r="F60" s="3">
         <v>484000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>432200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>497200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1028400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>845000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>867500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>882600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>768900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>772200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>368700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>833100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>999100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>998500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1033700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1122900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1036000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1110700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1189700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1186400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1182200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1075100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1071400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1455400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1062900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>224500</v>
+      </c>
+      <c r="F62" s="3">
         <v>231200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>242500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>269300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>322300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>374100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>374800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>389500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>322700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>312700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>303700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1640700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1639400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1748900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1797700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1802500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2461400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2408900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2428700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2454300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2166700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2156300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2127800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2194700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1537800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1469500</v>
+      </c>
+      <c r="F72" s="3">
         <v>1451300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1508800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1515400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>931500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>892600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>882100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>809100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>782100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>850200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>832600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>891500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1892600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1793600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1794200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1865500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1967700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1369300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1294500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1274900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1211000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1176300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1263200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1241100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1311200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46400</v>
+        <v>67500</v>
       </c>
       <c r="E81" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G81" s="3">
         <v>24500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>496400</v>
       </c>
-      <c r="G81" s="3">
-        <v>42500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>15700</v>
-      </c>
       <c r="I81" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K81" s="3">
         <v>77900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>150500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>60800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>31300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>59900</v>
+        <v>58500</v>
       </c>
       <c r="E83" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>118900</v>
+      </c>
+      <c r="G83" s="3">
         <v>59100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>258300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>66200</v>
       </c>
-      <c r="H83" s="3">
-        <v>64700</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K83" s="3">
         <v>65500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>228700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>59600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>104100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>54000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>61600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>76000</v>
+        <v>43200</v>
       </c>
       <c r="E89" s="3">
+        <v>100700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>192500</v>
+      </c>
+      <c r="G89" s="3">
         <v>116500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>516500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>140200</v>
       </c>
-      <c r="H89" s="3">
-        <v>111300</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>290000</v>
+      </c>
+      <c r="K89" s="3">
         <v>178700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>480100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>114400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>241600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>102000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23400</v>
+        <v>-25400</v>
       </c>
       <c r="E91" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-30500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-113700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-29700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-31500</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-92600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-20700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-50500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-26900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-102700</v>
+        <v>-20900</v>
       </c>
       <c r="E94" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-161300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-58600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>59100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-123700</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-586200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-96900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-69100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-32300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>59000</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-120700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-113100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>71400</v>
       </c>
-      <c r="H100" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-20100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-234600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-155300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-101500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-78400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13100</v>
+        <v>7600</v>
       </c>
       <c r="E101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-10300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-6100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>7800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19300</v>
+        <v>30900</v>
       </c>
       <c r="E102" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-65800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>452200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>198600</v>
       </c>
-      <c r="H102" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K102" s="3">
         <v>129300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-333000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-48900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>41200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-49100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>483400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ZD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>307100</v>
+      </c>
+      <c r="E8" s="3">
         <v>396700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>341900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>652400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>315100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1416700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>355100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>653000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>311700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1158800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>357000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>663400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>332400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E9" s="3">
         <v>50800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>92100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>46100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>92600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>178400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>261400</v>
+      </c>
+      <c r="E10" s="3">
         <v>345900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>289300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>560300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>269000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1228600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>305400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>560400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>267800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>980400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>301200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>547500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>273300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>341300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E12" s="3">
         <v>18200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>78900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>57100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,87 +998,93 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>17300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>75400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>95100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-17100</v>
       </c>
       <c r="M14" s="3">
         <v>-17100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+        <v>-17100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E15" s="3">
         <v>37400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>83000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>41200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>185700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>46600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>94100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>47300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>156400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>74400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>38800</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>280800</v>
+      </c>
+      <c r="E17" s="3">
         <v>303200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>302700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>574600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>284500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1276500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>334700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>613200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>282800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1003400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>262400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>535100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>277100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>295300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E18" s="3">
         <v>93500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>77800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>140200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>155400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>94600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>128300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>55300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-77700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>211100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-59800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-77100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-61800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-48700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E21" s="3">
         <v>150100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>95400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>119100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>609700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>72200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>110200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>73100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>307100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>170500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>147700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>91600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>351400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>24700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-17200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>66800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>365600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>123300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E27" s="3">
         <v>69200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>401100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,17 +1632,20 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1700</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -1592,34 +1653,37 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>95300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>35800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>77900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>39100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>122000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>77700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-211100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>59800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>77100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>61800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>48700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>67500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>496400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>93600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>77900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>150500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>67500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>496400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>93600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>77900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>150500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,84 +2053,88 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>721500</v>
+      </c>
+      <c r="E41" s="3">
         <v>652800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>621900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>648300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>629000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>694800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>546500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>347900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>372000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>242700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>567900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>616800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>526600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>575600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E42" s="3">
         <v>58400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>54900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>72500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>238200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>229200</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
+      <c r="M42" s="3">
+        <v>700</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>10</v>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>277800</v>
+      </c>
+      <c r="E43" s="3">
         <v>304700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>232300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>243300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>263700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>316300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>268300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>249000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>242400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>325600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>192800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>188400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>204800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,219 +2251,234 @@
         <v>68300</v>
       </c>
       <c r="E45" s="3">
+        <v>68300</v>
+      </c>
+      <c r="F45" s="3">
         <v>66200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>73500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>65100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>53900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>50800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1106600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1084300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>975300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1025100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1192900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>888300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>662000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>675500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>622800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>807300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>853100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>782100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>886900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E47" s="3">
         <v>127900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>124200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>128500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>121600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>122600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>110700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>117400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>138700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>96600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>98000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E48" s="3">
         <v>218800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>215400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>214700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>214000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>216800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>271500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>254600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>241100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>262400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>244700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>254500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>251900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>253600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2031000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2054300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2078400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2140100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2101700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2104200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2502500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2513700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2462600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2609000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2121100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2127700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2163800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2189600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E52" s="3">
         <v>48000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>57700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>155700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>185700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3527100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3533300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3433100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3543100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3663200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3770300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3830700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3703400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3703700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3665300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3343000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3419400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3368900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3505800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E57" s="3">
         <v>202500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>212900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>191900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>213000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>226600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>229000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>198200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>201100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>230700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>177800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>166300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>162700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>68500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>54600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>568100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>402100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>399900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>396800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>394000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>391100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>385500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E59" s="3">
         <v>229900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>203500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>223600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>219200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>216000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>231400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>244700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>266500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>255100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>197100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>214800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>206000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>209500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>441200</v>
+      </c>
+      <c r="E60" s="3">
         <v>432400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>416500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>484000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>432200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>497200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1028400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>845000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>867500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>882600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>768900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>772200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>368700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>833100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>999600</v>
+      </c>
+      <c r="E61" s="3">
         <v>999100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>998500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1033700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1122900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1036000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1110700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1189700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1186400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1182200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1075100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1071400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1455400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1062900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>191700</v>
+      </c>
+      <c r="E62" s="3">
         <v>209200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>224500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>231200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>242500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>269300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>322300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>374100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>374800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>389500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>322700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>312700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>303700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1632500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1640700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1639400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1748900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1797700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1802500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2461400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2408900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2428700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2454300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2166700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2156300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2127800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2194700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1530700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1537800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1469500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1451300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1508800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1515400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>931500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>892600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>882100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>809100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>782100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>850200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>832600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>891500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1894600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1892600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1793600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1794200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1865500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1967700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1369300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1294500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1274900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1211000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1176300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1263200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1241100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1311200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>67500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>496400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>93600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>77900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>150500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E83" s="3">
         <v>58500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>118900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>59100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>258300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>66200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>130200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>228700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>104100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>61600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E89" s="3">
         <v>43200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>192500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>116500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>516500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>290000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>178700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>480100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>114400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>241600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26900</v>
       </c>
-      <c r="F91" s="3">
-        <v>-53900</v>
-      </c>
       <c r="G91" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-30500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-113700</v>
-      </c>
       <c r="I91" s="3">
-        <v>-29700</v>
+        <v>-25100</v>
       </c>
       <c r="J91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-57800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-161300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>59100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-152600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-586200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-69100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-80200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-61700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-120700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-113100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>71400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-234600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-155300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-101500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-78400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>7600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E102" s="3">
         <v>30900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-65800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>452200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>198600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>105200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>129300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-333000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>41200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-49100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>483400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ZD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E8" s="3">
         <v>307100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>396700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>341900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>652400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>315100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1416700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>355100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>653000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>311700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1158800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>357000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>663400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>332400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E9" s="3">
         <v>45700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>92100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>46100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>92600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>178400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>278600</v>
+      </c>
+      <c r="E10" s="3">
         <v>261400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>345900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>289300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>560300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>269000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1228600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>305400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>560400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>267800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>980400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>301200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>547500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>273300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>341300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E12" s="3">
         <v>17900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>78900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>57100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1001,90 +1021,96 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>17300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>75400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>95100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-17100</v>
       </c>
       <c r="N14" s="3">
         <v>-17100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+        <v>-17100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E15" s="3">
         <v>33300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>37400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>36300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>83000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>185700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>46600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>94100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>47300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>156400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>74400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>38800</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>287100</v>
+      </c>
+      <c r="E17" s="3">
         <v>280800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>303200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>302700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>574600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>284500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1276500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>334700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>613200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>282800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1003400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>262400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>535100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>277100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>295300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E18" s="3">
         <v>26300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>93500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>77800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>140200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>155400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>94600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>128300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>55300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-25300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-77700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>211100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-21300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-77100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-61800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E21" s="3">
         <v>55600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>150100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>95400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>119100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>89500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>609700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>72200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>73100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>307100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>145500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>170500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>60500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>147700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>91600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>351400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>365600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>61600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>123300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>401100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,20 +1693,23 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1700</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1656,34 +1717,37 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>95300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>35800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>77900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>39100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>122000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E32" s="3">
         <v>25300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>77700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-211100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>21300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>77100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>61800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>48700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>496400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>93600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>150500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>496400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>93600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>150500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,90 +2140,94 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>679100</v>
+      </c>
+      <c r="E41" s="3">
         <v>721500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>652800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>621900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>648300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>629000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>694800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>546500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>347900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>372000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>242700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>567900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>616800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>526600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>575600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E42" s="3">
         <v>39000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>58400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>54900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>238200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>229200</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>10</v>
+      <c r="N42" s="3">
+        <v>700</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>10</v>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>285900</v>
+      </c>
+      <c r="E43" s="3">
         <v>277800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>304700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>232300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>243300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>263700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>316300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>268300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>249000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>242400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>325600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>192800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>188400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>204800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,243 +2338,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68300</v>
+        <v>74000</v>
       </c>
       <c r="E45" s="3">
         <v>68300</v>
       </c>
       <c r="F45" s="3">
+        <v>68300</v>
+      </c>
+      <c r="G45" s="3">
         <v>66200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>53900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1074900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1106600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1084300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>975300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1025100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1192900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>888300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>662000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>675500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>622800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>807300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>853100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>782100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>886900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E47" s="3">
         <v>116100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>127900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>124200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>128500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>121600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>122600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>110700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>138700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>96600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>98000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E48" s="3">
         <v>187000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>218800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>215400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>214700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>216800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>271500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>254600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>241100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>262400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>244700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>254500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>251900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>253600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2001500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2031000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2054300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2078400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2140100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2101700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2104200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2502500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2513700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2462600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2609000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2121100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2127700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2163800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2189600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E52" s="3">
         <v>86400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>48000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>26000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>155700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>185700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>90000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3469300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3527100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3533300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3433100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3543100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3663200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3770300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3830700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3703400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3703700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3665300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3343000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3419400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3368900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3505800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E57" s="3">
         <v>144000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>202500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>212900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>191900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>213000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>226600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>229000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>198200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>201100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>230700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>177800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>166300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>162700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>68500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>54600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>568100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>402100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>399900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>396800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>394000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>391100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>385500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E59" s="3">
         <v>297200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>229900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>203500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>223600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>219200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>216000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>231400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>244700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>266500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>255100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>197100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>214800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>206000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>209500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E60" s="3">
         <v>441200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>432400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>416500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>484000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>432200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>497200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1028400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>845000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>867500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>882600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>768900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>772200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>368700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>833100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000200</v>
+      </c>
+      <c r="E61" s="3">
         <v>999600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>999100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>998500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1033700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1122900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1036000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1110700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1189700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1186400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1182200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1075100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1071400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1455400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1062900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E62" s="3">
         <v>191700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>209200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>224500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>231200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>242500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>269300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>322300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>374100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>374800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>389500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>322700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>312700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>303700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1606600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1632500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1640700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1639400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1748900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1797700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1802500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2461400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2408900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2428700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2454300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2166700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2156300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2127800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2194700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1492900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1530700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1537800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1469500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1451300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1508800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1515400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>931500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>892600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>882100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>809100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>782100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>850200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>832600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>891500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1862700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1894600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1892600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1793600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1794200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1865500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1967700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1369300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1294500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1274900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1211000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1176300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1263200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1241100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1311200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>496400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>93600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>150500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E83" s="3">
         <v>54600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>118900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>59100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>258300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>66200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>130200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>228700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>104100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>61600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E89" s="3">
         <v>115300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>192500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>116500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>516500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>290000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>178700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>480100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>114400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>241600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-161300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>59100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-152600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-586200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-69100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-80200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-61700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-120700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-113100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>71400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-234600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-155300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-101500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-78400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E102" s="3">
         <v>68700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-65800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>452200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>198600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>105200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>129300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-333000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-48900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>41200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>483400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ZD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E8" s="3">
         <v>326000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>307100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>396700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>341900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>652400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>315100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1416700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>355100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>653000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>311700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1158800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>357000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>663400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>332400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E9" s="3">
         <v>47400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>92100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>46100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>188100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>178400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>115900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>285500</v>
+      </c>
+      <c r="E10" s="3">
         <v>278600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>261400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>345900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>289300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>560300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>269000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1228600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>305400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>560400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>267800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>980400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>301200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>547500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>273300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>341300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E12" s="3">
         <v>17800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>57100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,13 +1026,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>56900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1024,93 +1044,99 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>17300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>75400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>95100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-17100</v>
       </c>
       <c r="O14" s="3">
         <v>-17100</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+        <v>-17100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>37400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>36300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>83000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>185700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>94100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>47300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>156400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>74400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>38800</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E17" s="3">
         <v>287100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>280800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>303200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>302700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>574600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>284500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1276500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>334700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>613200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>282800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1003400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>262400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>535100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>277100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>295300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E18" s="3">
         <v>38900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>93500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>77800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>140200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>155400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>128300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-25300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-77700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>211100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-21300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-77100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-48700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E21" s="3">
         <v>80600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>150100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>95400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>119100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>89500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>609700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>72200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>307100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>145500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>170500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>60500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>147700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E23" s="3">
         <v>23700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>91600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>30400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>351400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>86100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>6500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-14200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E26" s="3">
         <v>17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>365600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>61600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>123300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E27" s="3">
         <v>16700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>401100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,12 +1768,12 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1700</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1720,34 +1781,37 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>95300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>35800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>77900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>39100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>122000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E32" s="3">
         <v>15200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>25300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>77700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-211100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>21300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>77100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>48700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E33" s="3">
         <v>16700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>496400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>93600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>150500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E35" s="3">
         <v>16700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>496400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>93600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>150500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,96 +2227,100 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>660600</v>
+      </c>
+      <c r="E41" s="3">
         <v>679100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>721500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>652800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>621900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>648300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>629000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>694800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>546500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>347900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>372000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>242700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>567900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>616800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>526600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>575600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E42" s="3">
         <v>35800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>58400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>238200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>229200</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>10</v>
+      <c r="O42" s="3">
+        <v>700</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>291500</v>
+      </c>
+      <c r="E43" s="3">
         <v>285900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>277800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>304700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>232300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>243300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>263700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>316300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>268300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>249000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>242400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>325600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>192800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>188400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>204800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>261900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,258 +2437,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E45" s="3">
         <v>74000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>68300</v>
       </c>
       <c r="F45" s="3">
         <v>68300</v>
       </c>
       <c r="G45" s="3">
+        <v>68300</v>
+      </c>
+      <c r="H45" s="3">
         <v>66200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1063700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1074900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1106600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1084300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>975300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1025100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1192900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>888300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>662000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>675500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>622800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>807300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>853100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>782100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>886900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E47" s="3">
         <v>114400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>116100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>127900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>124200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>128500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>121600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>122600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>110700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>138700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>97500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>96600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>98000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E48" s="3">
         <v>192400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>187000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>218800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>215400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>214000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>216800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>271500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>254600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>241100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>262400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>244700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>254500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>251900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>253600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1907600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2001500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2031000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2054300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2078400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2140100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2101700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2104200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2502500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2513700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2462600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2609000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2121100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2127700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2163800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2189600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E52" s="3">
         <v>86200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>86400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>48000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>26000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>155700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>185700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>75700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3383200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3469300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3527100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3533300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3433100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3543100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3663200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3770300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3830700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3703400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3703700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3665300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3343000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3419400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3368900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3505800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E57" s="3">
         <v>127100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>144000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>202500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>212900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>191900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>213000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>226600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>229000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>198200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>201100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>230700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>177800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>166300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>162700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,247 +3076,262 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>68500</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>54600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>568100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>402100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>399900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>396800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>394000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>391100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>385500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E59" s="3">
         <v>308900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>297200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>229900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>203500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>223600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>219200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>216000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>231400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>244700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>266500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>255100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>197100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>214800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>206000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>209500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>419500</v>
+      </c>
+      <c r="E60" s="3">
         <v>436000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>441200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>432400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>416500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>484000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>432200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>497200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1028400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>845000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>867500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>882600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>768900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>772200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>368700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>833100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>999600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>999100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>998500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1033700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1122900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1036000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1110700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1189700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1186400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1182200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1075100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1071400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1455400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1062900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E62" s="3">
         <v>170400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>191700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>209200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>224500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>231200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>242500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>269300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>322300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>374100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>374800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>389500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>322700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>312700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>303700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>298600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1579100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1606600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1632500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1640700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1639400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1748900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1797700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1802500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2461400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2408900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2428700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2454300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2166700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2156300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2127800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2194700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1492900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1530700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1537800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1469500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1451300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1508800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1515400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>931500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>892600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>882100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>809100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>782100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>850200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>832600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>891500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1804100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1862700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1894600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1892600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1793600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1794200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1865500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1967700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1369300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1294500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1274900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1211000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1176300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1263200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1241100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1311200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E81" s="3">
         <v>16700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>496400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>93600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>150500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E83" s="3">
         <v>56900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>118900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>59100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>258300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>130200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>228700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>59600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>104100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>61600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E89" s="3">
         <v>39700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>115300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>192500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>116500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>516500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>290000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>178700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>480100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>114400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>241600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-92600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-50500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-161300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>59100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-152600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-586200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-96900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-69100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-80200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-61700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-120700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-113100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>71400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-234600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-155300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-101500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-78400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>409800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>68700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-46600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-65800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>452200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>198600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>105200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>129300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-333000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-48900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-49100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>483400</v>
       </c>
     </row>
